--- a/done.xlsx
+++ b/done.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,74 +424,51 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ZP23056732</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>30</v>
-      </c>
-      <c r="C1" t="n">
-        <v>30</v>
+          <t>ZP</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZP23063182</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>10</v>
+          <t>ZP</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZP23063182</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
+          <t>ZP23063611</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CO3562774</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>ZP23069716</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>